--- a/GameDataConfigTool/excels/Language.xlsx
+++ b/GameDataConfigTool/excels/Language.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SynthMind\GameDataConfigTool\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\UnityProjects\SynthMind\GameDataConfigTool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F12B98-C0C2-4267-B717-FADEBC0C4DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3539E718-5F21-4738-9348-8B364BE26FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2025" windowWidth="17565" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15090" yWindow="6855" windowWidth="17130" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,35 +20,44 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id|int</t>
   </si>
   <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>zh-Hans</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>icon|string</t>
+  </si>
+  <si>
+    <t>Chinese(Simplified)</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
     <t>langCode|string</t>
-  </si>
-  <si>
-    <t>langLocName|string</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>zh-Hans</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>简体中文</t>
   </si>
 </sst>
 </file>
@@ -366,16 +375,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -383,10 +392,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -394,10 +403,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -405,10 +414,32 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
